--- a/biology/Médecine/Noréthandrolone/Noréthandrolone.xlsx
+++ b/biology/Médecine/Noréthandrolone/Noréthandrolone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nor%C3%A9thandrolone</t>
+          <t>Noréthandrolone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La norethandrolone est une molécule appartenant à la classe des stéroïdes anabolisants. Elle est indiquée en France dans le traitement de l'aplasie médullaire[1]. Elle ne semble plus commercialisée qu'en France en 2020[2]
+La norethandrolone est une molécule appartenant à la classe des stéroïdes anabolisants. Elle est indiquée en France dans le traitement de l'aplasie médullaire. Elle ne semble plus commercialisée qu'en France en 2020
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nor%C3%A9thandrolone</t>
+          <t>Noréthandrolone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Indications en médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'indication de l'autorisation de mise sur le marché, délivrée en 1960, est l'aplasie médullaire, une pathologie correspondant à la cessation de la synthèse de nouvelles cellules sanguines dans la moelle osseuse. Sa prescription semble cependant rare et est réservée en dernière ligne de traitement : la Haute Autorité de Santé française lui a attribué un service médical rendu « faible »[3]
-. Le danazol est un autre androgène indiqué dans le traitement de l'aplasie médullaire[4].
-La noréthandrolone a également été utilisée dans le traitement des leucémies aiguës myéloïdes en recherche clinique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'indication de l'autorisation de mise sur le marché, délivrée en 1960, est l'aplasie médullaire, une pathologie correspondant à la cessation de la synthèse de nouvelles cellules sanguines dans la moelle osseuse. Sa prescription semble cependant rare et est réservée en dernière ligne de traitement : la Haute Autorité de Santé française lui a attribué un service médical rendu « faible »
+. Le danazol est un autre androgène indiqué dans le traitement de l'aplasie médullaire.
+La noréthandrolone a également été utilisée dans le traitement des leucémies aiguës myéloïdes en recherche clinique.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nor%C3%A9thandrolone</t>
+          <t>Noréthandrolone</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du fait de l'action anabolisante et virilisante de la noréthandrolone, divers effets indésirables sont attendus: masculinisation avec hirsutisme, modifications du timbre de la voix, chute des cheveux, acné, séborrhée, augmentation de poids et de la masse musculaire[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du fait de l'action anabolisante et virilisante de la noréthandrolone, divers effets indésirables sont attendus: masculinisation avec hirsutisme, modifications du timbre de la voix, chute des cheveux, acné, séborrhée, augmentation de poids et de la masse musculaire
 </t>
         </is>
       </c>
